--- a/data/trans_bre/P36B08_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 17,92</t>
+          <t>0,61; 17,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 11,51</t>
+          <t>-1,52; 11,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 32,25</t>
+          <t>0,96; 30,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 15,06</t>
+          <t>-1,82; 14,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 18,89</t>
+          <t>5,72; 18,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 16,74</t>
+          <t>5,34; 16,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 15,8</t>
+          <t>4,65; 15,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 44,59</t>
+          <t>11,8; 45,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 32,1</t>
+          <t>9,04; 32,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 24,49</t>
+          <t>6,29; 22,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 11,45</t>
+          <t>-1,65; 12,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 12,02</t>
+          <t>-0,02; 11,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 12,15</t>
+          <t>-1,22; 11,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 16,68</t>
+          <t>-2,32; 17,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 16,01</t>
+          <t>-0,03; 15,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 17,67</t>
+          <t>-1,61; 16,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 15,01</t>
+          <t>2,51; 15,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 12,31</t>
+          <t>3,01; 12,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 12,93</t>
+          <t>1,25; 11,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 23,4</t>
+          <t>3,62; 23,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 17,02</t>
+          <t>3,74; 16,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 17,11</t>
+          <t>1,7; 15,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 20,34</t>
+          <t>0,98; 21,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 18,39</t>
+          <t>0,19; 18,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 5,1</t>
+          <t>-5,94; 5,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 43,95</t>
+          <t>1,92; 48,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 31,73</t>
+          <t>0,07; 31,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 5,75</t>
+          <t>-6,51; 6,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,78; 20,01</t>
+          <t>4,11; 19,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 18,23</t>
+          <t>3,17; 17,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 15,71</t>
+          <t>-2,49; 14,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,8; 32,46</t>
+          <t>6,08; 33,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 27,08</t>
+          <t>4,25; 26,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 31,93</t>
+          <t>-4,28; 29,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 4,36</t>
+          <t>-6,0; 4,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,94; 12,66</t>
+          <t>3,5; 13,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 13,72</t>
+          <t>3,09; 13,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 5,93</t>
+          <t>-7,61; 5,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 17,78</t>
+          <t>4,73; 18,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 22,82</t>
+          <t>4,8; 22,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 14,28</t>
+          <t>4,54; 14,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,26; 12,11</t>
+          <t>3,24; 12,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 4,06</t>
+          <t>-4,51; 4,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,72; 24,26</t>
+          <t>7,06; 24,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,37; 17,35</t>
+          <t>4,34; 17,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 5,51</t>
+          <t>-5,75; 5,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,16</t>
+          <t>5,5; 10,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,55</t>
+          <t>6,14; 10,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,15</t>
+          <t>2,76; 6,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,71; 16,36</t>
+          <t>8,59; 16,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,65; 15,04</t>
+          <t>8,51; 15,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,07; 10,08</t>
+          <t>3,76; 9,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P36B08_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 17,44</t>
+          <t>1,32; 17,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 11,18</t>
+          <t>-1,49; 11,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,88</t>
+          <t>-1,29; 6,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 30,41</t>
+          <t>2,02; 30,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 14,47</t>
+          <t>-1,74; 15,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 7,61</t>
+          <t>-1,33; 7,61</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 18,81</t>
+          <t>5,34; 18,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 16,98</t>
+          <t>5,57; 17,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 15,16</t>
+          <t>4,03; 15,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 4,12</t>
+          <t>-2,54; 4,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,8; 45,5</t>
+          <t>11,96; 44,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,04; 32,39</t>
+          <t>9,51; 33,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 22,88</t>
+          <t>5,5; 24,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,58</t>
+          <t>-2,68; 5,04</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 12,12</t>
+          <t>-2,58; 11,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 11,76</t>
+          <t>0,06; 11,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 11,37</t>
+          <t>-1,48; 11,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 7,43</t>
+          <t>-0,25; 7,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 17,58</t>
+          <t>-3,38; 16,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 15,34</t>
+          <t>0,15; 15,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 16,04</t>
+          <t>-1,9; 16,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 8,48</t>
+          <t>-0,27; 8,39</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 15,39</t>
+          <t>3,09; 15,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 12,15</t>
+          <t>3,11; 12,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 11,94</t>
+          <t>1,33; 12,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,26</t>
+          <t>-1,92; 2,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 23,93</t>
+          <t>4,33; 25,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 16,84</t>
+          <t>4,11; 17,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 15,74</t>
+          <t>1,59; 15,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,34</t>
+          <t>-1,94; 2,29</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 21,54</t>
+          <t>1,06; 21,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 18,49</t>
+          <t>-0,98; 17,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 5,32</t>
+          <t>-5,94; 5,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,42</t>
+          <t>-1,71; 0,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 48,26</t>
+          <t>1,63; 47,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 31,76</t>
+          <t>-1,42; 29,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 6,04</t>
+          <t>-6,41; 6,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,42</t>
+          <t>-1,71; 0,51</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 19,85</t>
+          <t>3,81; 19,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,17; 17,7</t>
+          <t>3,71; 17,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 14,28</t>
+          <t>-2,56; 14,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 3,92</t>
+          <t>-1,69; 3,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,08; 33,58</t>
+          <t>5,48; 33,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,25; 26,06</t>
+          <t>5,27; 25,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 29,38</t>
+          <t>-4,12; 29,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,12</t>
+          <t>-1,71; 4,04</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 4,08</t>
+          <t>-5,16; 4,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 13,22</t>
+          <t>3,5; 12,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 13,34</t>
+          <t>2,61; 13,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,72</t>
+          <t>1,1; 9,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 5,58</t>
+          <t>-6,59; 5,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 18,66</t>
+          <t>4,57; 17,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,8; 22,18</t>
+          <t>3,94; 22,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 11,5</t>
+          <t>1,23; 10,93</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 14,46</t>
+          <t>4,52; 14,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,24; 12,07</t>
+          <t>3,49; 12,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 4,27</t>
+          <t>-4,63; 4,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,94</t>
+          <t>-1,33; 1,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,06; 24,71</t>
+          <t>6,98; 23,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,34; 17,06</t>
+          <t>4,7; 17,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 5,77</t>
+          <t>-5,88; 5,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,0</t>
+          <t>-1,35; 1,97</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,03</t>
+          <t>5,65; 10,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,55</t>
+          <t>6,1; 10,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,98</t>
+          <t>2,83; 7,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,73</t>
+          <t>0,47; 2,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,59; 16,17</t>
+          <t>8,72; 16,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,07</t>
+          <t>8,42; 14,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,78</t>
+          <t>3,86; 10,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,91</t>
+          <t>0,5; 2,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B08_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 14,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 6,93</t>
+          <t>-3,17; 7,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 22,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 7,61</t>
+          <t>-3,39; 7,73</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,4%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,53</t>
+          <t>-2,69; 4,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 5,04</t>
+          <t>-2,83; 4,81</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 7,38</t>
+          <t>-0,22; 7,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 8,39</t>
+          <t>-0,25; 8,46</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 12,34</t>
+          <t>0,76; 12,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,2</t>
+          <t>-1,42; 2,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 17,36</t>
+          <t>0,97; 17,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,29</t>
+          <t>-1,44; 3,04</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-0,46%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,5</t>
+          <t>-1,66; 0,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,51</t>
+          <t>-1,67; 0,49</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,74</t>
+          <t>-1,64; 3,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,04</t>
+          <t>-1,68; 4,03</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 9,26</t>
+          <t>1,73; 11,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,93</t>
+          <t>1,92; 13,71</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>-0,23%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,89</t>
+          <t>-1,97; 1,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,97</t>
+          <t>-2,0; 1,41</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,56%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,76</t>
+          <t>0,2; 2,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,95</t>
+          <t>0,22; 3,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B08_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 17,68</t>
+          <t>1,9; 17,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 14,81</t>
+          <t>-0,08; 14,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 11,83</t>
+          <t>-1,54; 11,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 7,01</t>
+          <t>-3,4; 7,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 30,99</t>
+          <t>2,77; 31,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 22,38</t>
+          <t>-0,07; 22,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 15,65</t>
+          <t>-1,8; 15,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 7,73</t>
+          <t>-3,55; 8,05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 18,08</t>
+          <t>5,65; 18,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 17,47</t>
+          <t>5,5; 18,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 15,98</t>
+          <t>5,1; 15,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,35</t>
+          <t>-2,71; 4,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 44,1</t>
+          <t>11,17; 43,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 33,23</t>
+          <t>9,29; 35,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 24,37</t>
+          <t>7,2; 24,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 4,81</t>
+          <t>-2,86; 4,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 11,13</t>
+          <t>-1,67; 11,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 11,47</t>
+          <t>0,4; 12,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 11,45</t>
+          <t>-1,86; 11,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,49</t>
+          <t>-0,76; 7,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 16,15</t>
+          <t>-2,24; 17,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 15,23</t>
+          <t>0,48; 15,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 16,74</t>
+          <t>-2,51; 16,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 8,46</t>
+          <t>-0,78; 8,14</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 15,89</t>
+          <t>2,5; 15,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 12,71</t>
+          <t>1,8; 12,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 12,12</t>
+          <t>1,16; 11,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,9</t>
+          <t>-1,6; 2,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 25,01</t>
+          <t>3,71; 24,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 17,38</t>
+          <t>2,27; 17,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 15,81</t>
+          <t>1,43; 15,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,04</t>
+          <t>-1,61; 3,1</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 21,5</t>
+          <t>1,83; 21,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 17,47</t>
+          <t>-0,15; 18,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 5,94</t>
+          <t>-6,88; 4,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,49</t>
+          <t>-1,69; 0,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 47,52</t>
+          <t>3,34; 48,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 29,66</t>
+          <t>-0,19; 31,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 6,85</t>
+          <t>-7,41; 5,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,49</t>
+          <t>-1,7; 0,37</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 19,97</t>
+          <t>5,0; 19,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,71; 17,52</t>
+          <t>4,22; 18,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 14,78</t>
+          <t>-1,86; 15,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,8</t>
+          <t>-1,44; 3,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,48; 33,75</t>
+          <t>7,23; 31,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,27; 25,51</t>
+          <t>5,67; 27,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 29,95</t>
+          <t>-3,49; 31,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 4,03</t>
+          <t>-1,48; 3,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 4,14</t>
+          <t>-5,3; 4,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 12,8</t>
+          <t>3,7; 12,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 13,7</t>
+          <t>2,69; 13,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 11,45</t>
+          <t>1,67; 11,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 5,77</t>
+          <t>-6,9; 6,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,57; 17,84</t>
+          <t>4,88; 17,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 22,63</t>
+          <t>3,97; 22,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 13,71</t>
+          <t>1,77; 13,6</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,02</t>
+          <t>4,37; 14,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,49; 12,3</t>
+          <t>2,82; 12,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 4,13</t>
+          <t>-4,8; 3,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,37</t>
+          <t>-1,86; 1,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,98; 23,53</t>
+          <t>6,9; 24,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 17,56</t>
+          <t>3,71; 17,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 5,61</t>
+          <t>-6,11; 4,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,41</t>
+          <t>-1,89; 1,39</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,17</t>
+          <t>5,62; 10,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,49</t>
+          <t>6,41; 10,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,25</t>
+          <t>2,86; 7,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,9</t>
+          <t>0,02; 2,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,46</t>
+          <t>8,73; 16,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,42; 14,99</t>
+          <t>8,86; 14,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,26</t>
+          <t>3,86; 10,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,1</t>
+          <t>0,01; 3,0</t>
         </is>
       </c>
     </row>
